--- a/excelTest.xlsx
+++ b/excelTest.xlsx
@@ -19,15 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>dave</t>
+    <t>under pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">is </t>
+    <t>david bowie</t>
   </si>
   <si>
-    <t>cool</t>
+    <t>norwegian wood</t>
+  </si>
+  <si>
+    <t>the beatles</t>
   </si>
 </sst>
 </file>
@@ -396,23 +399,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excelTest.xlsx
+++ b/excelTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="1300" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>under pressure</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>the beatles</t>
+  </si>
+  <si>
+    <t>so what</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -399,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -424,6 +430,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excelTest.xlsx
+++ b/excelTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1300" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="2120" yWindow="0" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,34 +19,413 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>under pressure</t>
-  </si>
-  <si>
-    <t>david bowie</t>
-  </si>
-  <si>
-    <t>norwegian wood</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>the beatles</t>
   </si>
   <si>
-    <t>so what</t>
-  </si>
-  <si>
-    <t>pink</t>
+    <t>(nothing but) flowers</t>
+  </si>
+  <si>
+    <t>talking heads</t>
+  </si>
+  <si>
+    <t>so much for the afterglow</t>
+  </si>
+  <si>
+    <t>everclear</t>
+  </si>
+  <si>
+    <t>baby, you're a rich man</t>
+  </si>
+  <si>
+    <t>pigs that ran straightaway</t>
+  </si>
+  <si>
+    <t>the mountain goats</t>
+  </si>
+  <si>
+    <t>to be young</t>
+  </si>
+  <si>
+    <t>ryan adams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domino </t>
+  </si>
+  <si>
+    <t>van morrison</t>
+  </si>
+  <si>
+    <t>the underdog</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>you're too weird</t>
+  </si>
+  <si>
+    <t>fruit bats</t>
+  </si>
+  <si>
+    <t>misty mountain hop</t>
+  </si>
+  <si>
+    <t>led zeppelin</t>
+  </si>
+  <si>
+    <t>it's the end of the world</t>
+  </si>
+  <si>
+    <t>R.E.M</t>
+  </si>
+  <si>
+    <t>tonight you belong to me</t>
+  </si>
+  <si>
+    <t>eddie vedder</t>
+  </si>
+  <si>
+    <t>maggie may</t>
+  </si>
+  <si>
+    <t>rod stewart</t>
+  </si>
+  <si>
+    <t>american girl</t>
+  </si>
+  <si>
+    <t>tom petty</t>
+  </si>
+  <si>
+    <t>our house</t>
+  </si>
+  <si>
+    <t>phantom planet</t>
+  </si>
+  <si>
+    <t>san francisco</t>
+  </si>
+  <si>
+    <t>brett dennen</t>
+  </si>
+  <si>
+    <t>two fingers</t>
+  </si>
+  <si>
+    <t>jake bugg</t>
+  </si>
+  <si>
+    <t>quedate luna</t>
+  </si>
+  <si>
+    <t>devendra banhart</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>matchbox twenty</t>
+  </si>
+  <si>
+    <t>foreign object</t>
+  </si>
+  <si>
+    <t>january wedding</t>
+  </si>
+  <si>
+    <t>the avett brothers</t>
+  </si>
+  <si>
+    <t>live and die</t>
+  </si>
+  <si>
+    <t>harlem roulette</t>
+  </si>
+  <si>
+    <t>cry for judas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this year </t>
+  </si>
+  <si>
+    <t>your graduation</t>
+  </si>
+  <si>
+    <t>modern baseball</t>
+  </si>
+  <si>
+    <t>hard candy</t>
+  </si>
+  <si>
+    <t>counting crows</t>
+  </si>
+  <si>
+    <t>that's life</t>
+  </si>
+  <si>
+    <t>frank sinatra</t>
+  </si>
+  <si>
+    <t>it's only life</t>
+  </si>
+  <si>
+    <t>the shins</t>
+  </si>
+  <si>
+    <t>hickory</t>
+  </si>
+  <si>
+    <t>iron &amp; wine</t>
+  </si>
+  <si>
+    <t>belated promise ring</t>
+  </si>
+  <si>
+    <t>this must be the place</t>
+  </si>
+  <si>
+    <t>no rain</t>
+  </si>
+  <si>
+    <t>blind melon</t>
+  </si>
+  <si>
+    <t>blister in the sun</t>
+  </si>
+  <si>
+    <t>violent femmes</t>
+  </si>
+  <si>
+    <t>dilly</t>
+  </si>
+  <si>
+    <t>band of horses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">older </t>
+  </si>
+  <si>
+    <t>when the devil's loose</t>
+  </si>
+  <si>
+    <t>a.a. bondy</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>daughters</t>
+  </si>
+  <si>
+    <t>john mayer</t>
+  </si>
+  <si>
+    <t>no such thing</t>
+  </si>
+  <si>
+    <t>run-around</t>
+  </si>
+  <si>
+    <t>blues traveler</t>
+  </si>
+  <si>
+    <t>OMGCD</t>
+  </si>
+  <si>
+    <t>the low anthem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one by one </t>
+  </si>
+  <si>
+    <t>the black seeds</t>
+  </si>
+  <si>
+    <t>fire and rain</t>
+  </si>
+  <si>
+    <t>james taylor</t>
+  </si>
+  <si>
+    <t>friend of the devil</t>
+  </si>
+  <si>
+    <t>grateful dead</t>
+  </si>
+  <si>
+    <t>new lover</t>
+  </si>
+  <si>
+    <t>josh ritter</t>
+  </si>
+  <si>
+    <t>shadow stabbing</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>joe's head</t>
+  </si>
+  <si>
+    <t>kings of leon</t>
+  </si>
+  <si>
+    <t>spirit in the night</t>
+  </si>
+  <si>
+    <t>bruce springsteen</t>
+  </si>
+  <si>
+    <t>thunder road</t>
+  </si>
+  <si>
+    <t>why'd you only call me when you're high</t>
+  </si>
+  <si>
+    <t>arctic monkeys</t>
+  </si>
+  <si>
+    <t>(antichrist television blues)</t>
+  </si>
+  <si>
+    <t>arcade fire</t>
+  </si>
+  <si>
+    <t>turning the century</t>
+  </si>
+  <si>
+    <t>dr. dog</t>
+  </si>
+  <si>
+    <t>the once and future carpenter</t>
+  </si>
+  <si>
+    <t>nugget</t>
+  </si>
+  <si>
+    <t>nancy from now on</t>
+  </si>
+  <si>
+    <t>father john misty</t>
+  </si>
+  <si>
+    <t>glad tidings</t>
+  </si>
+  <si>
+    <t>the man in me</t>
+  </si>
+  <si>
+    <t>bob dylan</t>
+  </si>
+  <si>
+    <t>wildfire</t>
+  </si>
+  <si>
+    <t>something like olivia</t>
+  </si>
+  <si>
+    <t>too sick to pray</t>
+  </si>
+  <si>
+    <t>phosphorescent</t>
+  </si>
+  <si>
+    <t>the run and go</t>
+  </si>
+  <si>
+    <t>twenty one pilots</t>
+  </si>
+  <si>
+    <t>all the small things</t>
+  </si>
+  <si>
+    <t>blink-182</t>
+  </si>
+  <si>
+    <t>minority</t>
+  </si>
+  <si>
+    <t>green day</t>
+  </si>
+  <si>
+    <t>train in vain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just like heaven </t>
+  </si>
+  <si>
+    <t>the cure</t>
+  </si>
+  <si>
+    <t>the clash</t>
+  </si>
+  <si>
+    <t>folsom prison blues</t>
+  </si>
+  <si>
+    <t>johnny cash</t>
+  </si>
+  <si>
+    <t>last kiss</t>
+  </si>
+  <si>
+    <t>pearl jam</t>
+  </si>
+  <si>
+    <t>given to fly</t>
+  </si>
+  <si>
+    <t>elderly woman</t>
+  </si>
+  <si>
+    <t>santa maria de feira</t>
+  </si>
+  <si>
+    <t>won't you come over</t>
+  </si>
+  <si>
+    <t>all star</t>
+  </si>
+  <si>
+    <t>smash mouth</t>
+  </si>
+  <si>
+    <t>out of my head</t>
+  </si>
+  <si>
+    <t>fastball</t>
+  </si>
+  <si>
+    <t>the way</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +448,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -418,30 +801,599 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
